--- a/Data-Nike/IDT_nike.xlsx
+++ b/Data-Nike/IDT_nike.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marko\Documents\AMAT\NIke urejeni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristina\Desktop\Študijsko leto 2020-21\TFPR\Analiza-podjetij\Data-Nike\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="86">
   <si>
     <t>Operating cash flows</t>
   </si>
@@ -292,7 +292,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="###,##0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +310,11 @@
       <sz val="10"/>
       <color rgb="FF555555"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -349,10 +354,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -370,9 +376,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Navadno" xfId="0" builtinId="0"/>
+    <cellStyle name="Navadno 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -650,18 +667,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>43616</v>
@@ -675,8 +693,11 @@
       <c r="E1" s="2">
         <v>42521</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F1" s="8">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -684,8 +705,9 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -701,8 +723,11 @@
       <c r="E3" s="5">
         <v>3760000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F3" s="9">
+        <v>3273000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -718,8 +743,11 @@
       <c r="E4" s="5">
         <v>649000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="9">
+        <v>606000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -735,8 +763,11 @@
       <c r="E5" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F5" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -752,8 +783,11 @@
       <c r="E6" s="5">
         <v>649000</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F6" s="9">
+        <v>606000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -769,8 +803,11 @@
       <c r="E7" s="5">
         <v>13000</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="F7" s="9">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -786,8 +823,11 @@
       <c r="E8" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F8" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -803,8 +843,11 @@
       <c r="E9" s="5">
         <v>13000</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F9" s="9">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -820,8 +863,11 @@
       <c r="E10" s="5">
         <v>-80000</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F10" s="9">
+        <v>-113000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -837,8 +883,11 @@
       <c r="E11" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F11" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -854,8 +903,11 @@
       <c r="E12" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F12" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -871,8 +923,11 @@
       <c r="E13" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F13" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -888,8 +943,11 @@
       <c r="E14" s="5">
         <v>98000</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F14" s="9">
+        <v>424000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -905,8 +963,11 @@
       <c r="E15" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="F15" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -922,8 +983,11 @@
       <c r="E16" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F16" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -939,8 +1003,11 @@
       <c r="E17" s="5">
         <v>236000</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F17" s="9">
+        <v>191000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -956,8 +1023,11 @@
       <c r="E18" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F18" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -973,8 +1043,11 @@
       <c r="E19" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F19" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -990,8 +1063,11 @@
       <c r="E20" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F20" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -1007,8 +1083,11 @@
       <c r="E21" s="5">
         <v>60000</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F21" s="9">
+        <v>-216000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
@@ -1024,8 +1103,11 @@
       <c r="E22" s="5">
         <v>-590000</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F22" s="9">
+        <v>-621000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
@@ -1041,8 +1123,11 @@
       <c r="E23" s="5">
         <v>-161000</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F23" s="9">
+        <v>-144000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
@@ -1058,8 +1143,11 @@
       <c r="E24" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F24" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -1075,8 +1163,11 @@
       <c r="E25" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F25" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
@@ -1092,8 +1183,11 @@
       <c r="E26" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F26" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
@@ -1109,8 +1203,11 @@
       <c r="E27" s="5">
         <v>-586000</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F27" s="9">
+        <v>1237000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
@@ -1126,8 +1223,11 @@
       <c r="E28" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F28" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
@@ -1143,8 +1243,11 @@
       <c r="E29" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="F29" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
@@ -1160,8 +1263,11 @@
       <c r="E30" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F30" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
@@ -1177,8 +1283,11 @@
       <c r="E31" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F31" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
@@ -1194,8 +1303,11 @@
       <c r="E32" s="5">
         <v>-1277000</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="F32" s="9">
+        <v>256000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
@@ -1211,8 +1323,11 @@
       <c r="E33" s="5">
         <v>3399000</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F33" s="9">
+        <v>4680000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -1220,8 +1335,9 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
@@ -1237,8 +1353,11 @@
       <c r="E35" s="5">
         <v>-1143000</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="F35" s="9">
+        <v>-963000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
@@ -1254,8 +1373,11 @@
       <c r="E36" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F36" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
@@ -1271,8 +1393,11 @@
       <c r="E37" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F37" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
@@ -1288,8 +1413,11 @@
       <c r="E38" s="5">
         <v>-1143000</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F38" s="9">
+        <v>-963000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
@@ -1305,8 +1433,11 @@
       <c r="E39" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F39" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
@@ -1322,8 +1453,11 @@
       <c r="E40" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
@@ -1339,8 +1473,11 @@
       <c r="E41" s="5">
         <v>10000</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F41" s="9">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
@@ -1356,8 +1493,11 @@
       <c r="E42" s="5">
         <v>5310000</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F42" s="9">
+        <v>5871000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
@@ -1373,8 +1513,11 @@
       <c r="E43" s="5">
         <v>150000</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F43" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
@@ -1390,8 +1533,11 @@
       <c r="E44" s="5">
         <v>-5367000</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F44" s="9">
+        <v>-5086000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
@@ -1407,8 +1553,11 @@
       <c r="E45" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F45" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>45</v>
       </c>
@@ -1424,8 +1573,11 @@
       <c r="E46" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F46" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>46</v>
       </c>
@@ -1441,8 +1593,11 @@
       <c r="E47" s="5">
         <v>6000</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="F47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
@@ -1458,8 +1613,11 @@
       <c r="E48" s="5">
         <v>109000</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="F48" s="9">
+        <v>788000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>48</v>
       </c>
@@ -1475,8 +1633,11 @@
       <c r="E49" s="5">
         <v>-1034000</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F49" s="9">
+        <v>-175000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -1484,8 +1645,9 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>50</v>
       </c>
@@ -1501,8 +1663,11 @@
       <c r="E51" s="5">
         <v>-22000</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F51" s="9">
+        <v>218000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>51</v>
       </c>
@@ -1518,8 +1683,11 @@
       <c r="E52" s="5">
         <v>-22000</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="F52" s="9">
+        <v>218000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>52</v>
       </c>
@@ -1535,8 +1703,11 @@
       <c r="E53" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="F53" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>53</v>
       </c>
@@ -1552,8 +1723,11 @@
       <c r="E54" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="F54" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>54</v>
       </c>
@@ -1569,8 +1743,11 @@
       <c r="E55" s="5">
         <v>-1022000</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F55" s="9">
+        <v>-899000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>55</v>
       </c>
@@ -1586,8 +1763,11 @@
       <c r="E56" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="F56" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>56</v>
       </c>
@@ -1603,8 +1783,11 @@
       <c r="E57" s="5">
         <v>-3238000</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F57" s="9">
+        <v>-2534000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>57</v>
       </c>
@@ -1620,8 +1803,11 @@
       <c r="E58" s="5">
         <v>-3238000</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F58" s="9">
+        <v>-2534000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>58</v>
       </c>
@@ -1637,8 +1823,11 @@
       <c r="E59" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="F59" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>59</v>
       </c>
@@ -1654,8 +1843,11 @@
       <c r="E60" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F60" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>60</v>
       </c>
@@ -1671,8 +1863,11 @@
       <c r="E61" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="F61" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>61</v>
       </c>
@@ -1688,8 +1883,11 @@
       <c r="E62" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="F62" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>62</v>
       </c>
@@ -1705,8 +1903,11 @@
       <c r="E63" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F63" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>63</v>
       </c>
@@ -1722,8 +1923,11 @@
       <c r="E64" s="5">
         <v>507000</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F64" s="9">
+        <v>514000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>64</v>
       </c>
@@ -1739,8 +1943,11 @@
       <c r="E65" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F65" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
@@ -1756,8 +1963,11 @@
       <c r="E66" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F66" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>66</v>
       </c>
@@ -1773,8 +1983,11 @@
       <c r="E67" s="5">
         <v>-2731000</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F67" s="9">
+        <v>-2020000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>67</v>
       </c>
@@ -1790,8 +2003,11 @@
       <c r="E68" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F68" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>68</v>
       </c>
@@ -1807,8 +2023,11 @@
       <c r="E69" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F69" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>69</v>
       </c>
@@ -1824,8 +2043,11 @@
       <c r="E70" s="5">
         <v>-67000</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F70" s="9">
+        <v>-63000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>70</v>
       </c>
@@ -1841,8 +2063,11 @@
       <c r="E71" s="5">
         <v>981000</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F71" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>71</v>
       </c>
@@ -1858,8 +2083,11 @@
       <c r="E72" s="5">
         <v>-113000</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F72" s="9">
+        <v>-26000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>72</v>
       </c>
@@ -1875,8 +2103,11 @@
       <c r="E73" s="5">
         <v>868000</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F73" s="9">
+        <v>-26000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>73</v>
       </c>
@@ -1892,8 +2123,11 @@
       <c r="E74" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F74" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>74</v>
       </c>
@@ -1909,8 +2143,11 @@
       <c r="E75" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F75" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>75</v>
       </c>
@@ -1926,8 +2163,11 @@
       <c r="E76" s="5">
         <v>801000</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="F76" s="9">
+        <v>-89000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>76</v>
       </c>
@@ -1943,8 +2183,11 @@
       <c r="E77" s="5">
         <v>-2974000</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" s="9">
+        <v>-2790000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>77</v>
       </c>
@@ -1952,8 +2195,9 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-    </row>
-    <row r="79" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F78" s="7"/>
+    </row>
+    <row r="79" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>78</v>
       </c>
@@ -1969,8 +2213,11 @@
       <c r="E79" s="5">
         <v>-105000</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F79" s="9">
+        <v>-83000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>79</v>
       </c>
@@ -1986,8 +2233,11 @@
       <c r="E80" s="5">
         <v>-714000</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F80" s="9">
+        <v>1632000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>80</v>
       </c>
@@ -2003,8 +2253,11 @@
       <c r="E81" s="5">
         <v>3852000</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F81" s="9">
+        <v>2220000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>81</v>
       </c>
@@ -2020,8 +2273,11 @@
       <c r="E82" s="5">
         <v>3138000</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F82" s="9">
+        <v>3852000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>82</v>
       </c>
@@ -2029,8 +2285,9 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-    </row>
-    <row r="84" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="F83" s="7"/>
+    </row>
+    <row r="84" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>83</v>
       </c>
@@ -2046,8 +2303,11 @@
       <c r="E84" s="5">
         <v>649000</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="F84" s="9">
+        <v>606000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>84</v>
       </c>
@@ -2063,8 +2323,11 @@
       <c r="E85" s="5">
         <v>70000</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="F85" s="9">
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>85</v>
       </c>
@@ -2079,6 +2342,9 @@
       </c>
       <c r="E86" s="5">
         <v>748000</v>
+      </c>
+      <c r="F86" s="9">
+        <v>1262000</v>
       </c>
     </row>
   </sheetData>
